--- a/TestData/RegisterTestData.xlsx
+++ b/TestData/RegisterTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\eclipse-workspace\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\OneDrive\Documents\KeepMeUpdated\Teladoc\Assignment\Completed\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889EB1E-44D6-4D27-81E0-22EB5F8AF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808BBD1-1C88-48CA-826D-0428969FFF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-8655" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
+    <sheet name="DeleteRecord" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -98,6 +99,9 @@
   </si>
   <si>
     <t>NameRamTeladoc@gmail.com</t>
+  </si>
+  <si>
+    <t>novak</t>
   </si>
 </sst>
 </file>
@@ -432,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,4 +538,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A290AB-0442-43D2-8F80-C6EECB6DD108}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/RegisterTestData.xlsx
+++ b/TestData/RegisterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\OneDrive\Documents\KeepMeUpdated\Teladoc\Assignment\Completed\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808BBD1-1C88-48CA-826D-0428969FFF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634BF832-4661-4877-A58F-03B8729F9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -68,9 +68,6 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>FirstNameTeladoc</t>
   </si>
   <si>
@@ -80,25 +77,10 @@
     <t>Password@1014</t>
   </si>
   <si>
-    <t>Password@1015</t>
-  </si>
-  <si>
-    <t>Teladoc</t>
-  </si>
-  <si>
     <t>TeladocUserOne</t>
   </si>
   <si>
-    <t>TeladocUserTwo</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
     <t>NameRam@gmail.com</t>
-  </si>
-  <si>
-    <t>NameRamTeladoc@gmail.com</t>
   </si>
   <si>
     <t>novak</t>
@@ -434,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,16 +462,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -498,45 +480,18 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{DB3092F1-996D-40E5-8A74-F9E1646A7AA0}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{0C93A3D1-E0B4-4180-B2A8-16331DDC62F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -560,7 +515,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/RegisterTestData.xlsx
+++ b/TestData/RegisterTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\OneDrive\Documents\KeepMeUpdated\Teladoc\Assignment\Completed\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634BF832-4661-4877-A58F-03B8729F9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9CD49-511C-4F68-B380-3BB404567434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -59,31 +59,31 @@
     <t>Role</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>FirstNameTeladoc</t>
+  </si>
+  <si>
+    <t>LastNameTeladoc</t>
+  </si>
+  <si>
+    <t>Password@1014</t>
+  </si>
+  <si>
+    <t>TeladocUserOne</t>
+  </si>
+  <si>
+    <t>NameRam@gmail.com</t>
+  </si>
+  <si>
+    <t>novak</t>
+  </si>
+  <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>FirstNameTeladoc</t>
-  </si>
-  <si>
-    <t>LastNameTeladoc</t>
-  </si>
-  <si>
-    <t>Password@1014</t>
-  </si>
-  <si>
-    <t>TeladocUserOne</t>
-  </si>
-  <si>
-    <t>NameRam@gmail.com</t>
-  </si>
-  <si>
-    <t>novak</t>
   </si>
 </sst>
 </file>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,28 +462,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A290AB-0442-43D2-8F80-C6EECB6DD108}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/RegisterTestData.xlsx
+++ b/TestData/RegisterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaith\OneDrive\Documents\KeepMeUpdated\Teladoc\Assignment\Completed\Vaitheeswaran_Sundararaj_teladoc_challenge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9CD49-511C-4F68-B380-3BB404567434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA057D-8799-49CE-A1C7-4FDD9D998D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>FirstNameTeladoc</t>
-  </si>
-  <si>
     <t>LastNameTeladoc</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>TeladocUser FirstName</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,25 +462,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
